--- a/data/trans_orig/P14_x_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04839A9A-2528-41FF-B72C-F55A57F4F858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7AE0D34-948E-4308-8A02-8A1B1DAD1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{522DCD7B-87A2-46BB-BA40-5547C7A80E44}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67AF93DC-7DC1-418B-8606-2F6C07A556DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -197,64 +197,64 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
   </si>
   <si>
     <t>8,75%</t>
@@ -263,13 +263,13 @@
     <t>7,52%</t>
   </si>
   <si>
-    <t>10,08%</t>
+    <t>10,17%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>5,08%</t>
   </si>
   <si>
     <t>6,59%</t>
@@ -278,16 +278,16 @@
     <t>97,08%</t>
   </si>
   <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>89,92%</t>
+    <t>89,83%</t>
   </si>
   <si>
     <t>92,48%</t>
@@ -299,70 +299,70 @@
     <t>93,41%</t>
   </si>
   <si>
-    <t>94,94%</t>
+    <t>94,92%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>10,16%</t>
@@ -371,31 +371,31 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>11,26%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>88,74%</t>
+    <t>88,79%</t>
   </si>
   <si>
     <t>90,91%</t>
@@ -404,10 +404,10 @@
     <t>93,21%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -416,211 +416,211 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>7,18%</t>
+    <t>5,3%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>92,82%</t>
+    <t>94,7%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2F58E7-6917-4088-9309-5870D1AB6299}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6101EDC-F981-41D4-863C-8FCB33FCAAF2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1783,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910553E-EB38-4C4A-A0F7-8C4C714239BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B0D775-DA33-431F-8046-06467A1F1419}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4182209B-DAD8-4F4B-BA69-EA9FC99ED0F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84818FFF-B12E-489B-93CA-48C717B24CE7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3285,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD9CFE4-8A53-49D2-A1D5-F47848E2A372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21707081-5DF5-4550-B035-6246B5E6864B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3627,7 +3627,7 @@
         <v>2578</v>
       </c>
       <c r="I8" s="7">
-        <v>2010010</v>
+        <v>2010011</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>154</v>
@@ -3678,7 +3678,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3877,10 +3877,10 @@
         <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
         <v>691</v>
@@ -3922,16 +3922,16 @@
         <v>3141</v>
       </c>
       <c r="D14" s="7">
-        <v>3167429</v>
+        <v>3167428</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>4661</v>
@@ -3952,7 +3952,7 @@
         <v>7802</v>
       </c>
       <c r="N14" s="7">
-        <v>6511287</v>
+        <v>6511286</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>191</v>
@@ -3973,7 +3973,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4003,7 +4003,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14_x_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7AE0D34-948E-4308-8A02-8A1B1DAD1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1965CA1A-4FC5-46E4-BB58-3E021391A8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67AF93DC-7DC1-418B-8606-2F6C07A556DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B304FF0-1C52-4DC7-BF08-5C3C6587D72C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="190">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -191,16 +191,16 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>16,84%</t>
@@ -209,31 +209,31 @@
     <t>14,5%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>19,39%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>80,28%</t>
+    <t>80,61%</t>
   </si>
   <si>
     <t>85,5%</t>
@@ -242,118 +242,106 @@
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
+    <t>1,8%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
+    <t>1,67%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>98,2%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>3,27%</t>
@@ -362,31 +350,31 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>96,04%</t>
+    <t>96,09%</t>
   </si>
   <si>
     <t>97,31%</t>
@@ -395,19 +383,19 @@
     <t>89,84%</t>
   </si>
   <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
   </si>
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1032,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6101EDC-F981-41D4-863C-8FCB33FCAAF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDF46F9-2F62-405B-A051-B70031F0C200}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1359,7 +1347,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1410,7 +1398,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1669,7 +1657,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1699,7 +1687,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1720,7 +1708,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1750,7 +1738,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1783,7 +1771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B0D775-DA33-431F-8046-06467A1F1419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388EF030-5C6B-41EC-8CA7-93FF08F5181C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84818FFF-B12E-489B-93CA-48C717B24CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B6C090-5C21-4902-AB38-E02CE23BC876}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2989,7 +2977,7 @@
         <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2998,13 +2986,13 @@
         <v>27765</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3007,13 @@
         <v>536397</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3034,13 +3022,13 @@
         <v>531863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M11" s="7">
         <v>1003</v>
@@ -3049,13 +3037,13 @@
         <v>1068261</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3111,13 @@
         <v>110570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -3138,13 +3126,13 @@
         <v>358790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M13" s="7">
         <v>433</v>
@@ -3153,13 +3141,13 @@
         <v>469360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3162,13 @@
         <v>3267048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>3000</v>
@@ -3189,13 +3177,13 @@
         <v>3173310</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M14" s="7">
         <v>6108</v>
@@ -3204,13 +3192,13 @@
         <v>6440358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,7 +3273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21707081-5DF5-4550-B035-6246B5E6864B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4D6EA5-CCE1-4739-A25A-1D0CA4F9B7BC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3302,7 +3290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3409,13 +3397,13 @@
         <v>58096</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>279</v>
@@ -3424,13 +3412,13 @@
         <v>164386</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>349</v>
@@ -3439,13 +3427,13 @@
         <v>222481</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3448,13 @@
         <v>483538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>1148</v>
@@ -3475,13 +3463,13 @@
         <v>671567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>1769</v>
@@ -3490,13 +3478,13 @@
         <v>1155105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3552,13 @@
         <v>115663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>343</v>
@@ -3579,13 +3567,13 @@
         <v>239510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>460</v>
@@ -3594,13 +3582,13 @@
         <v>355173</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3603,13 @@
         <v>2046359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>2578</v>
@@ -3630,13 +3618,13 @@
         <v>2010011</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>4453</v>
@@ -3645,13 +3633,13 @@
         <v>4056370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3707,13 @@
         <v>35508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -3734,13 +3722,13 @@
         <v>51606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -3749,13 +3737,13 @@
         <v>87114</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3758,13 @@
         <v>637531</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>935</v>
@@ -3785,13 +3773,13 @@
         <v>662280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>1580</v>
@@ -3800,13 +3788,13 @@
         <v>1299812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3862,13 @@
         <v>209266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>691</v>
@@ -3889,13 +3877,13 @@
         <v>455502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>914</v>
@@ -3904,13 +3892,13 @@
         <v>664768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3913,13 @@
         <v>3167428</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>4661</v>
@@ -3940,13 +3928,13 @@
         <v>3343858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>7802</v>
@@ -3955,13 +3943,13 @@
         <v>6511286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14_x_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1965CA1A-4FC5-46E4-BB58-3E021391A8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B668575-5AFA-44DB-8BC0-583D829E0A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2B304FF0-1C52-4DC7-BF08-5C3C6587D72C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97CDFA69-DE89-4054-BF8A-BFF5508331CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="194">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -197,166 +197,178 @@
     <t>5,24%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>94,76%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>8,75%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>91,25%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>94,23%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>1,92%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>98,08%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>96,85%</t>
   </si>
   <si>
-    <t>98,2%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
   <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>9,12%</t>
+    <t>9,09%</t>
   </si>
   <si>
     <t>11,26%</t>
@@ -365,19 +377,19 @@
     <t>6,79%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>89,84%</t>
@@ -386,16 +398,16 @@
     <t>88,74%</t>
   </si>
   <si>
-    <t>90,88%</t>
+    <t>90,91%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -404,211 +416,211 @@
     <t>10,73%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>16,15%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>80,34%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
   </si>
   <si>
     <t>83,85%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>7,18%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>94,7%</t>
+    <t>92,82%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDF46F9-2F62-405B-A051-B70031F0C200}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E67C80B-31CB-4C25-80F9-5C992C909786}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1347,7 +1359,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1398,7 +1410,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1657,7 +1669,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1687,7 +1699,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1708,7 +1720,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1738,7 +1750,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1771,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388EF030-5C6B-41EC-8CA7-93FF08F5181C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3F165E-FE86-4B54-959E-37C33C7D8F85}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2522,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B6C090-5C21-4902-AB38-E02CE23BC876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90233BFD-CDF1-45E6-8ED2-1F6ED3F06049}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2977,7 +2989,7 @@
         <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -2986,13 +2998,13 @@
         <v>27765</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3019,13 @@
         <v>536397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3022,13 +3034,13 @@
         <v>531863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>1003</v>
@@ -3037,13 +3049,13 @@
         <v>1068261</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3123,13 @@
         <v>110570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7">
         <v>326</v>
@@ -3126,13 +3138,13 @@
         <v>358790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>433</v>
@@ -3141,13 +3153,13 @@
         <v>469360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3174,13 @@
         <v>3267048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>3000</v>
@@ -3177,13 +3189,13 @@
         <v>3173310</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>6108</v>
@@ -3192,13 +3204,13 @@
         <v>6440358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4D6EA5-CCE1-4739-A25A-1D0CA4F9B7BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C064E57-5236-4D7F-8A0B-F42A8D9FD59C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3290,7 +3302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3397,13 +3409,13 @@
         <v>58096</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>279</v>
@@ -3412,13 +3424,13 @@
         <v>164386</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>349</v>
@@ -3427,13 +3439,13 @@
         <v>222481</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3460,13 @@
         <v>483538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>1148</v>
@@ -3463,13 +3475,13 @@
         <v>671567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>1769</v>
@@ -3478,13 +3490,13 @@
         <v>1155105</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3564,13 @@
         <v>115663</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>343</v>
@@ -3567,13 +3579,13 @@
         <v>239510</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>460</v>
@@ -3582,13 +3594,13 @@
         <v>355173</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,28 +3615,28 @@
         <v>2046359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>2578</v>
       </c>
       <c r="I8" s="7">
-        <v>2010011</v>
+        <v>2010010</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>4453</v>
@@ -3633,13 +3645,13 @@
         <v>4056370</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,7 +3678,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3707,13 +3719,13 @@
         <v>35508</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -3722,13 +3734,13 @@
         <v>51606</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -3737,13 +3749,13 @@
         <v>87114</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3770,13 @@
         <v>637531</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>935</v>
@@ -3773,13 +3785,13 @@
         <v>662280</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1580</v>
@@ -3788,13 +3800,13 @@
         <v>1299812</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3874,13 @@
         <v>209266</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>691</v>
@@ -3877,13 +3889,13 @@
         <v>455502</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>914</v>
@@ -3892,13 +3904,13 @@
         <v>664768</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,16 +3922,16 @@
         <v>3141</v>
       </c>
       <c r="D14" s="7">
-        <v>3167428</v>
+        <v>3167429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>4661</v>
@@ -3928,28 +3940,28 @@
         <v>3343858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>7802</v>
       </c>
       <c r="N14" s="7">
-        <v>6511286</v>
+        <v>6511287</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,7 +3973,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3991,7 +4003,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
